--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lgi2-Adam11.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lgi2-Adam11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
     <t>Lgi2</t>
   </si>
   <si>
     <t>Adam11</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.194537333333334</v>
+        <v>0.3777555</v>
       </c>
       <c r="H2">
-        <v>21.583612</v>
+        <v>0.755511</v>
       </c>
       <c r="I2">
-        <v>0.9450222006930215</v>
+        <v>0.04674878051708328</v>
       </c>
       <c r="J2">
-        <v>0.9617036862109067</v>
+        <v>0.03234814298672928</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.095045</v>
+        <v>0.4578845</v>
       </c>
       <c r="N2">
-        <v>0.19009</v>
+        <v>0.9157690000000001</v>
       </c>
       <c r="O2">
-        <v>0.03541474254866415</v>
+        <v>0.1062139753234554</v>
       </c>
       <c r="P2">
-        <v>0.03279067460745289</v>
+        <v>0.1055270602873987</v>
       </c>
       <c r="Q2">
-        <v>0.6838048008466667</v>
+        <v>0.17296838823975</v>
       </c>
       <c r="R2">
-        <v>4.102828805080001</v>
+        <v>0.6918735529590001</v>
       </c>
       <c r="S2">
-        <v>0.03346771794031538</v>
+        <v>0.004965373820243117</v>
       </c>
       <c r="T2">
-        <v>0.03153491264332983</v>
+        <v>0.003413604435145975</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +587,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.194537333333334</v>
+        <v>0.3777555</v>
       </c>
       <c r="H3">
-        <v>21.583612</v>
+        <v>0.755511</v>
       </c>
       <c r="I3">
-        <v>0.9450222006930215</v>
+        <v>0.04674878051708328</v>
       </c>
       <c r="J3">
-        <v>0.9617036862109067</v>
+        <v>0.03234814298672928</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +620,22 @@
         <v>0.16837</v>
       </c>
       <c r="O3">
-        <v>0.02091213005389932</v>
+        <v>0.01301874674014239</v>
       </c>
       <c r="P3">
-        <v>0.02904395751305615</v>
+        <v>0.01940182637825622</v>
       </c>
       <c r="Q3">
-        <v>0.4037814169377778</v>
+        <v>0.021200897845</v>
       </c>
       <c r="R3">
-        <v>3.63403275244</v>
+        <v>0.12720538707</v>
       </c>
       <c r="S3">
-        <v>0.01976242716471461</v>
+        <v>0.0006086105339624101</v>
       </c>
       <c r="T3">
-        <v>0.02793168100245906</v>
+        <v>0.0006276130538875282</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +649,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.194537333333334</v>
+        <v>0.3777555</v>
       </c>
       <c r="H4">
-        <v>21.583612</v>
+        <v>0.755511</v>
       </c>
       <c r="I4">
-        <v>0.9450222006930215</v>
+        <v>0.04674878051708328</v>
       </c>
       <c r="J4">
-        <v>0.9617036862109067</v>
+        <v>0.03234814298672928</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.04162233333333334</v>
+        <v>3.796955</v>
       </c>
       <c r="N4">
-        <v>0.124867</v>
+        <v>7.593909999999999</v>
       </c>
       <c r="O4">
-        <v>0.01550890861460026</v>
+        <v>0.8807672779364022</v>
       </c>
       <c r="P4">
-        <v>0.02153965577467947</v>
+        <v>0.8750711133343451</v>
       </c>
       <c r="Q4">
-        <v>0.2994534310671111</v>
+        <v>1.4343206345025</v>
       </c>
       <c r="R4">
-        <v>2.695080879604</v>
+        <v>5.73728253801</v>
       </c>
       <c r="S4">
-        <v>0.0146562629493165</v>
+        <v>0.04117479616287775</v>
       </c>
       <c r="T4">
-        <v>0.02071476635822329</v>
+        <v>0.02830692549769578</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -720,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.194537333333334</v>
+        <v>7.194537333333333</v>
       </c>
       <c r="H5">
         <v>21.583612</v>
       </c>
       <c r="I5">
-        <v>0.9450222006930215</v>
+        <v>0.8903532753804024</v>
       </c>
       <c r="J5">
-        <v>0.9617036862109067</v>
+        <v>0.9241291882528327</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,33 +738,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.159188</v>
+        <v>0.4578845</v>
       </c>
       <c r="N5">
-        <v>4.318376</v>
+        <v>0.9157690000000001</v>
       </c>
       <c r="O5">
-        <v>0.804535610859751</v>
+        <v>0.1062139753234554</v>
       </c>
       <c r="P5">
-        <v>0.7449232587123678</v>
+        <v>0.1055270602873987</v>
       </c>
       <c r="Q5">
-        <v>15.53435867568533</v>
+        <v>3.294267129604667</v>
       </c>
       <c r="R5">
-        <v>93.20615205411201</v>
+        <v>19.765602777628</v>
       </c>
       <c r="S5">
-        <v>0.7603040135105862</v>
+        <v>0.09456796082041176</v>
       </c>
       <c r="T5">
-        <v>0.716395443847925</v>
+        <v>0.09752063656210151</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,51 +782,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.194537333333334</v>
+        <v>7.194537333333333</v>
       </c>
       <c r="H6">
         <v>21.583612</v>
       </c>
       <c r="I6">
-        <v>0.9450222006930215</v>
+        <v>0.8903532753804024</v>
       </c>
       <c r="J6">
-        <v>0.9617036862109067</v>
+        <v>0.9241291882528327</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.113491</v>
+        <v>0.05612333333333333</v>
       </c>
       <c r="N6">
-        <v>0.340473</v>
+        <v>0.16837</v>
       </c>
       <c r="O6">
-        <v>0.04228791147972479</v>
+        <v>0.01301874674014239</v>
       </c>
       <c r="P6">
-        <v>0.05873186046411336</v>
+        <v>0.01940182637825622</v>
       </c>
       <c r="Q6">
-        <v>0.8165152364973334</v>
+        <v>0.4037814169377777</v>
       </c>
       <c r="R6">
-        <v>7.348637128476</v>
+        <v>3.63403275244</v>
       </c>
       <c r="S6">
-        <v>0.0399630151692812</v>
+        <v>0.01159128380143371</v>
       </c>
       <c r="T6">
-        <v>0.05648264670636243</v>
+        <v>0.01792979406156032</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,51 +844,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.194537333333334</v>
+        <v>7.194537333333333</v>
       </c>
       <c r="H7">
         <v>21.583612</v>
       </c>
       <c r="I7">
-        <v>0.9450222006930215</v>
+        <v>0.8903532753804024</v>
       </c>
       <c r="J7">
-        <v>0.9617036862109067</v>
+        <v>0.9241291882528327</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2182996666666667</v>
+        <v>3.796955</v>
       </c>
       <c r="N7">
-        <v>0.654899</v>
+        <v>7.593909999999999</v>
       </c>
       <c r="O7">
-        <v>0.08134069644336051</v>
+        <v>0.8807672779364022</v>
       </c>
       <c r="P7">
-        <v>0.1129705929283302</v>
+        <v>0.8750711133343451</v>
       </c>
       <c r="Q7">
-        <v>1.570565101687556</v>
+        <v>27.31733450048666</v>
       </c>
       <c r="R7">
-        <v>14.135085915188</v>
+        <v>163.90400700292</v>
       </c>
       <c r="S7">
-        <v>0.07686876395880757</v>
+        <v>0.784194030758557</v>
       </c>
       <c r="T7">
-        <v>0.108644235652607</v>
+        <v>0.8086787576291709</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -906,7 +897,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -915,51 +906,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3961645</v>
+        <v>0.5082495</v>
       </c>
       <c r="H8">
-        <v>0.7923290000000001</v>
+        <v>1.016499</v>
       </c>
       <c r="I8">
-        <v>0.05203729305731365</v>
+        <v>0.06289794410251424</v>
       </c>
       <c r="J8">
-        <v>0.03530390186738909</v>
+        <v>0.04352266876043807</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.095045</v>
+        <v>0.4578845</v>
       </c>
       <c r="N8">
-        <v>0.19009</v>
+        <v>0.9157690000000001</v>
       </c>
       <c r="O8">
-        <v>0.03541474254866415</v>
+        <v>0.1062139753234554</v>
       </c>
       <c r="P8">
-        <v>0.03279067460745289</v>
+        <v>0.1055270602873987</v>
       </c>
       <c r="Q8">
-        <v>0.0376534549025</v>
+        <v>0.23271956818275</v>
       </c>
       <c r="R8">
-        <v>0.15061381961</v>
+        <v>0.9308782727310001</v>
       </c>
       <c r="S8">
-        <v>0.001842887336554151</v>
+        <v>0.006680640682800525</v>
       </c>
       <c r="T8">
-        <v>0.001157638758507004</v>
+        <v>0.004592819290151233</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -968,7 +959,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3961645</v>
+        <v>0.5082495</v>
       </c>
       <c r="H9">
-        <v>0.7923290000000001</v>
+        <v>1.016499</v>
       </c>
       <c r="I9">
-        <v>0.05203729305731365</v>
+        <v>0.06289794410251424</v>
       </c>
       <c r="J9">
-        <v>0.03530390186738909</v>
+        <v>0.04352266876043807</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,27 +992,27 @@
         <v>0.16837</v>
       </c>
       <c r="O9">
-        <v>0.02091213005389932</v>
+        <v>0.01301874674014239</v>
       </c>
       <c r="P9">
-        <v>0.02904395751305615</v>
+        <v>0.01940182637825622</v>
       </c>
       <c r="Q9">
-        <v>0.02223407228833333</v>
+        <v>0.028524656105</v>
       </c>
       <c r="R9">
-        <v>0.13340443373</v>
+        <v>0.17114793663</v>
       </c>
       <c r="S9">
-        <v>0.001088210640067415</v>
+        <v>0.0008188524047462656</v>
       </c>
       <c r="T9">
-        <v>0.001025365025881552</v>
+        <v>0.0008444192628083753</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1030,7 +1021,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1039,604 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3961645</v>
+        <v>0.5082495</v>
       </c>
       <c r="H10">
-        <v>0.7923290000000001</v>
+        <v>1.016499</v>
       </c>
       <c r="I10">
-        <v>0.05203729305731365</v>
+        <v>0.06289794410251424</v>
       </c>
       <c r="J10">
-        <v>0.03530390186738909</v>
+        <v>0.04352266876043807</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.04162233333333334</v>
+        <v>3.796955</v>
       </c>
       <c r="N10">
-        <v>0.124867</v>
+        <v>7.593909999999999</v>
       </c>
       <c r="O10">
-        <v>0.01550890861460026</v>
+        <v>0.8807672779364022</v>
       </c>
       <c r="P10">
-        <v>0.02153965577467947</v>
+        <v>0.8750711133343451</v>
       </c>
       <c r="Q10">
-        <v>0.01648929087383334</v>
+        <v>1.9298004802725</v>
       </c>
       <c r="R10">
-        <v>0.09893574524300001</v>
+        <v>7.71920192109</v>
       </c>
       <c r="S10">
-        <v>0.00080704162257705</v>
+        <v>0.05539845101496745</v>
       </c>
       <c r="T10">
-        <v>0.0007604338937266247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.3961645</v>
-      </c>
-      <c r="H11">
-        <v>0.7923290000000001</v>
-      </c>
-      <c r="I11">
-        <v>0.05203729305731365</v>
-      </c>
-      <c r="J11">
-        <v>0.03530390186738909</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2.159188</v>
-      </c>
-      <c r="N11">
-        <v>4.318376</v>
-      </c>
-      <c r="O11">
-        <v>0.804535610859751</v>
-      </c>
-      <c r="P11">
-        <v>0.7449232587123678</v>
-      </c>
-      <c r="Q11">
-        <v>0.855393634426</v>
-      </c>
-      <c r="R11">
-        <v>3.421574537704</v>
-      </c>
-      <c r="S11">
-        <v>0.04186585535735372</v>
-      </c>
-      <c r="T11">
-        <v>0.02629869762431713</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.3961645</v>
-      </c>
-      <c r="H12">
-        <v>0.7923290000000001</v>
-      </c>
-      <c r="I12">
-        <v>0.05203729305731365</v>
-      </c>
-      <c r="J12">
-        <v>0.03530390186738909</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.113491</v>
-      </c>
-      <c r="N12">
-        <v>0.340473</v>
-      </c>
-      <c r="O12">
-        <v>0.04228791147972479</v>
-      </c>
-      <c r="P12">
-        <v>0.05873186046411336</v>
-      </c>
-      <c r="Q12">
-        <v>0.0449611052695</v>
-      </c>
-      <c r="R12">
-        <v>0.269766631617</v>
-      </c>
-      <c r="S12">
-        <v>0.002200548442452177</v>
-      </c>
-      <c r="T12">
-        <v>0.002073463838314247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.3961645</v>
-      </c>
-      <c r="H13">
-        <v>0.7923290000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.05203729305731365</v>
-      </c>
-      <c r="J13">
-        <v>0.03530390186738909</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.2182996666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.654899</v>
-      </c>
-      <c r="O13">
-        <v>0.08134069644336051</v>
-      </c>
-      <c r="P13">
-        <v>0.1129705929283302</v>
-      </c>
-      <c r="Q13">
-        <v>0.08648257829516667</v>
-      </c>
-      <c r="R13">
-        <v>0.5188954697710001</v>
-      </c>
-      <c r="S13">
-        <v>0.00423274965830914</v>
-      </c>
-      <c r="T13">
-        <v>0.00398830272664253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.02238633333333333</v>
-      </c>
-      <c r="H14">
-        <v>0.067159</v>
-      </c>
-      <c r="I14">
-        <v>0.002940506249664913</v>
-      </c>
-      <c r="J14">
-        <v>0.002992411921704221</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.5</v>
-      </c>
-      <c r="M14">
-        <v>0.095045</v>
-      </c>
-      <c r="N14">
-        <v>0.19009</v>
-      </c>
-      <c r="O14">
-        <v>0.03541474254866415</v>
-      </c>
-      <c r="P14">
-        <v>0.03279067460745289</v>
-      </c>
-      <c r="Q14">
-        <v>0.002127709051666666</v>
-      </c>
-      <c r="R14">
-        <v>0.01276625431</v>
-      </c>
-      <c r="S14">
-        <v>0.0001041372717946208</v>
-      </c>
-      <c r="T14">
-        <v>9.81232056160659E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.02238633333333333</v>
-      </c>
-      <c r="H15">
-        <v>0.067159</v>
-      </c>
-      <c r="I15">
-        <v>0.002940506249664913</v>
-      </c>
-      <c r="J15">
-        <v>0.002992411921704221</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.05612333333333333</v>
-      </c>
-      <c r="N15">
-        <v>0.16837</v>
-      </c>
-      <c r="O15">
-        <v>0.02091213005389932</v>
-      </c>
-      <c r="P15">
-        <v>0.02904395751305615</v>
-      </c>
-      <c r="Q15">
-        <v>0.001256395647777778</v>
-      </c>
-      <c r="R15">
-        <v>0.01130756083</v>
-      </c>
-      <c r="S15">
-        <v>6.14922491172964E-05</v>
-      </c>
-      <c r="T15">
-        <v>8.691148471554009E-05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.02238633333333333</v>
-      </c>
-      <c r="H16">
-        <v>0.067159</v>
-      </c>
-      <c r="I16">
-        <v>0.002940506249664913</v>
-      </c>
-      <c r="J16">
-        <v>0.002992411921704221</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.04162233333333334</v>
-      </c>
-      <c r="N16">
-        <v>0.124867</v>
-      </c>
-      <c r="O16">
-        <v>0.01550890861460026</v>
-      </c>
-      <c r="P16">
-        <v>0.02153965577467947</v>
-      </c>
-      <c r="Q16">
-        <v>0.0009317714281111111</v>
-      </c>
-      <c r="R16">
-        <v>0.008385942852999999</v>
-      </c>
-      <c r="S16">
-        <v>4.560404270671409E-05</v>
-      </c>
-      <c r="T16">
-        <v>6.445552272955602E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.02238633333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.067159</v>
-      </c>
-      <c r="I17">
-        <v>0.002940506249664913</v>
-      </c>
-      <c r="J17">
-        <v>0.002992411921704221</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>2.159188</v>
-      </c>
-      <c r="N17">
-        <v>4.318376</v>
-      </c>
-      <c r="O17">
-        <v>0.804535610859751</v>
-      </c>
-      <c r="P17">
-        <v>0.7449232587123678</v>
-      </c>
-      <c r="Q17">
-        <v>0.04833630229733332</v>
-      </c>
-      <c r="R17">
-        <v>0.290017813784</v>
-      </c>
-      <c r="S17">
-        <v>0.002365741991811077</v>
-      </c>
-      <c r="T17">
-        <v>0.002229117240125647</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.02238633333333333</v>
-      </c>
-      <c r="H18">
-        <v>0.067159</v>
-      </c>
-      <c r="I18">
-        <v>0.002940506249664913</v>
-      </c>
-      <c r="J18">
-        <v>0.002992411921704221</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M18">
-        <v>0.113491</v>
-      </c>
-      <c r="N18">
-        <v>0.340473</v>
-      </c>
-      <c r="O18">
-        <v>0.04228791147972479</v>
-      </c>
-      <c r="P18">
-        <v>0.05873186046411336</v>
-      </c>
-      <c r="Q18">
-        <v>0.002540647356333333</v>
-      </c>
-      <c r="R18">
-        <v>0.022865826207</v>
-      </c>
-      <c r="S18">
-        <v>0.0001243478679914074</v>
-      </c>
-      <c r="T18">
-        <v>0.0001757499194366816</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.02238633333333333</v>
-      </c>
-      <c r="H19">
-        <v>0.067159</v>
-      </c>
-      <c r="I19">
-        <v>0.002940506249664913</v>
-      </c>
-      <c r="J19">
-        <v>0.002992411921704221</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M19">
-        <v>0.2182996666666667</v>
-      </c>
-      <c r="N19">
-        <v>0.654899</v>
-      </c>
-      <c r="O19">
-        <v>0.08134069644336051</v>
-      </c>
-      <c r="P19">
-        <v>0.1129705929283302</v>
-      </c>
-      <c r="Q19">
-        <v>0.004886929104555555</v>
-      </c>
-      <c r="R19">
-        <v>0.043982361941</v>
-      </c>
-      <c r="S19">
-        <v>0.0002391828262437981</v>
-      </c>
-      <c r="T19">
-        <v>0.0003380545490807299</v>
+        <v>0.03808543020747847</v>
       </c>
     </row>
   </sheetData>
